--- a/_extrafiles/APROVADORES_PCP_FABRICADOS.xlsx
+++ b/_extrafiles/APROVADORES_PCP_FABRICADOS.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
-  <si>
-    <t>CIRINA77</t>
-  </si>
-  <si>
-    <t>ELTOBORG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>VWL</t>
   </si>
@@ -149,7 +143,19 @@
     <t>Aline</t>
   </si>
   <si>
-    <t>Elton</t>
+    <t>NADEFERR</t>
+  </si>
+  <si>
+    <t>CIRINA14</t>
+  </si>
+  <si>
+    <t>TENNECO</t>
+  </si>
+  <si>
+    <t>TENNECO BR</t>
+  </si>
+  <si>
+    <t>Nadevir</t>
   </si>
 </sst>
 </file>
@@ -174,13 +180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,300 +487,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D20">
+  <autoFilter ref="A1:D19">
     <sortState ref="A2:D20">
       <sortCondition ref="D1:D20"/>
     </sortState>

--- a/_extrafiles/APROVADORES_PCP_FABRICADOS.xlsx
+++ b/_extrafiles/APROVADORES_PCP_FABRICADOS.xlsx
@@ -1,33 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcsant\Documents\GitHub\engineering-SA\_extrafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976A75F7-4D20-4501-8117-7202688E78E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fabricados" sheetId="1" r:id="rId1"/>
+    <sheet name="Comprados" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Comprados!$A$2:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fabricados!$A$1:$D$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
   <si>
     <t>VWL</t>
   </si>
@@ -156,13 +170,283 @@
   </si>
   <si>
     <t>Nadevir</t>
+  </si>
+  <si>
+    <t>ID HTML</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Português</t>
+  </si>
+  <si>
+    <t>GSCM_001</t>
+  </si>
+  <si>
+    <t>Absorption Materials - Cold End</t>
+  </si>
+  <si>
+    <t>Material absorsivo, fibra de vidro</t>
+  </si>
+  <si>
+    <t>SEBAREZE</t>
+  </si>
+  <si>
+    <t>GSCM_002</t>
+  </si>
+  <si>
+    <t>Hangers</t>
+  </si>
+  <si>
+    <t>Ganchos, suportes tubular (hangers)</t>
+  </si>
+  <si>
+    <t>GSCM_003</t>
+  </si>
+  <si>
+    <t>Hot End Insulation</t>
+  </si>
+  <si>
+    <t>Manta térmica</t>
+  </si>
+  <si>
+    <t>GSCM_004</t>
+  </si>
+  <si>
+    <t>Support Mats</t>
+  </si>
+  <si>
+    <t>Suporte do catalisador (Support Mats)</t>
+  </si>
+  <si>
+    <t>GSCM_005</t>
+  </si>
+  <si>
+    <t>Wire Mesh</t>
+  </si>
+  <si>
+    <t>Malha de aço (wire mesh)</t>
+  </si>
+  <si>
+    <t>GSCM_006</t>
+  </si>
+  <si>
+    <t>OE Monoliths</t>
+  </si>
+  <si>
+    <t>Catalisadores</t>
+  </si>
+  <si>
+    <t>LUCIAE11</t>
+  </si>
+  <si>
+    <t>GSCM_007</t>
+  </si>
+  <si>
+    <t>Stainless Steel</t>
+  </si>
+  <si>
+    <t>MP - Chapas e bobinas em Aço inox</t>
+  </si>
+  <si>
+    <t>ERIKBARB</t>
+  </si>
+  <si>
+    <t>GSCM_008</t>
+  </si>
+  <si>
+    <t>Steel / Aluminized Carbon Steel</t>
+  </si>
+  <si>
+    <t>MP - Aço aluminizado e carbono</t>
+  </si>
+  <si>
+    <t>GSCM_009</t>
+  </si>
+  <si>
+    <t>Tubing / Stainless Straight Tube</t>
+  </si>
+  <si>
+    <t>MP - Tubo em inox</t>
+  </si>
+  <si>
+    <t>GSCM_010</t>
+  </si>
+  <si>
+    <t>ICY</t>
+  </si>
+  <si>
+    <t>ICY (Outras Tenneco)</t>
+  </si>
+  <si>
+    <t>GIULSILV</t>
+  </si>
+  <si>
+    <t>GSCM_011</t>
+  </si>
+  <si>
+    <t>Welding Wire</t>
+  </si>
+  <si>
+    <t>Arame de solda</t>
+  </si>
+  <si>
+    <t>GSCM_012</t>
+  </si>
+  <si>
+    <t>Manipulated Pipes (Nacional)</t>
+  </si>
+  <si>
+    <t>Tubo dobrado, estampado, furado (Nacional)</t>
+  </si>
+  <si>
+    <t>GSCM_013</t>
+  </si>
+  <si>
+    <t>Stampings (Nacional)</t>
+  </si>
+  <si>
+    <t>Estampados (Nacional)</t>
+  </si>
+  <si>
+    <t>GSCM_014</t>
+  </si>
+  <si>
+    <t>Bosses</t>
+  </si>
+  <si>
+    <t>Conector do sensor (microfundido)</t>
+  </si>
+  <si>
+    <t>GSCM_015</t>
+  </si>
+  <si>
+    <t>Castings</t>
+  </si>
+  <si>
+    <t>Componentes fundidos</t>
+  </si>
+  <si>
+    <t>GSCM_016</t>
+  </si>
+  <si>
+    <t>Clamps</t>
+  </si>
+  <si>
+    <t>Abraçadeiras</t>
+  </si>
+  <si>
+    <t>GSCM_017</t>
+  </si>
+  <si>
+    <t>Cold Headings / Fasteners</t>
+  </si>
+  <si>
+    <t>Parafusos, arruelas e porcas</t>
+  </si>
+  <si>
+    <t>GSCM_018</t>
+  </si>
+  <si>
+    <t>Flex Couplings</t>
+  </si>
+  <si>
+    <t>Elemento flexível</t>
+  </si>
+  <si>
+    <t>GSCM_019</t>
+  </si>
+  <si>
+    <t>Gaskets</t>
+  </si>
+  <si>
+    <t>Juntas</t>
+  </si>
+  <si>
+    <t>GSCM_020</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>Plasticos</t>
+  </si>
+  <si>
+    <t>GSCM_021</t>
+  </si>
+  <si>
+    <t>Returnable Packaging</t>
+  </si>
+  <si>
+    <t>Embalagem retornavel</t>
+  </si>
+  <si>
+    <t>GSCM_022</t>
+  </si>
+  <si>
+    <t>Packaging &amp; label</t>
+  </si>
+  <si>
+    <t>Embalagens e etiquetas</t>
+  </si>
+  <si>
+    <t>GSCM_023</t>
+  </si>
+  <si>
+    <t>Rubber Components</t>
+  </si>
+  <si>
+    <t>Coxins e elementos de borracha</t>
+  </si>
+  <si>
+    <t>GSCM_024</t>
+  </si>
+  <si>
+    <t>Hydroforming</t>
+  </si>
+  <si>
+    <t>Componetes hidroformados</t>
+  </si>
+  <si>
+    <t>GSCM_025</t>
+  </si>
+  <si>
+    <t>Manipulated Pipes(Importado)</t>
+  </si>
+  <si>
+    <t>Tubo dobrado, estampado, furado (Importado)</t>
+  </si>
+  <si>
+    <t>GSCM_026</t>
+  </si>
+  <si>
+    <t>Stampings(Importado)</t>
+  </si>
+  <si>
+    <t>Estampados (Importado)</t>
+  </si>
+  <si>
+    <t>Importados</t>
+  </si>
+  <si>
+    <t>Atualizado conforme alinhamento com o Carlos Sousa no dia 09/08/2023.</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Atualizado em: 09/08/2023</t>
+  </si>
+  <si>
+    <t>Nac. - OPT 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +454,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +482,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -203,10 +519,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,12 +1128,540 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D19">
-    <sortState ref="A2:D20">
+  <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
       <sortCondition ref="D1:D20"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48DD2E8-F794-4FBC-9C70-3C0AF79762C8}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C28" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>